--- a/debugging/results/results_check.xlsx
+++ b/debugging/results/results_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\debugging\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28172729-6F9E-4F3B-B7B6-5190CD687DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417AC2E-1BCD-49EF-862A-10D13806B39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Modelled</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1PJ = </t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>Difference (GWh)</t>
+  </si>
+  <si>
+    <t>Actual data (2020) (GWh)</t>
+  </si>
+  <si>
+    <t>Modelled (GWh)</t>
+  </si>
+  <si>
+    <t>Difference (PJ)</t>
+  </si>
+  <si>
+    <t>Modeled (PJ)</t>
+  </si>
+  <si>
+    <t>Difference (GW)</t>
+  </si>
+  <si>
+    <t>PJ</t>
   </si>
 </sst>
 </file>
@@ -101,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,19 +162,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,141 +498,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="3">
         <v>2102.7946000000002</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>7147</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>-5044.2054000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>E2/$C$12</f>
+        <v>-18.159647910141487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3">
         <v>134162.1844</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>160984</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>-26821.815600000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="0">E3/$C$12</f>
+        <v>-96.561239874716506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3">
         <v>18802.928199999998</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>15038</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>3764.928199999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>13.554121035388984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3">
         <v>352.78059999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>4506</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>-4153.2194</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-14.952008496237896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3">
         <v>4636.1481999999996</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>4233</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>403.14819999999958</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.4513741584764359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3">
         <v>4422.2575999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>4422.2575999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>15.92057313604781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3">
         <v>4741.7046</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>4741.7046</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>169220.79819999999</v>
-      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>17.070614537207042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="3">
         <f>SUM(C2:C8)</f>
+        <v>169220.79819999999</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(D2:D8)</f>
         <v>191908</v>
       </c>
-      <c r="D9" s="3">
-        <f>B9-C9</f>
+      <c r="E9" s="3">
+        <f>C9-D9</f>
         <v>-22687.20180000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-81.676213413975631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>277.77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +718,7 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,10 +726,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,8 +745,12 @@
       <c r="D2">
         <v>183.8904</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2/$C$10</f>
+        <v>0.66202397667134683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -645,8 +763,12 @@
       <c r="D3">
         <v>-12880.5398</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">D3/$C$10</f>
+        <v>-46.3712416747669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,8 +781,12 @@
       <c r="D4">
         <v>-9.7776000000000032</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-3.5200345609677088E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,8 +799,12 @@
       <c r="D5">
         <v>-130.2184</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-0.46879936638225872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,8 +817,12 @@
       <c r="D6">
         <v>952.78539999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.4301234834575371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -701,8 +835,12 @@
       <c r="D7">
         <v>16639.022000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>59.902156460380901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -717,6 +855,21 @@
       <c r="D8">
         <f>B8-C8</f>
         <v>4755.1620000000003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>17.119062533750949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>277.77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -726,15 +879,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,8 +897,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,8 +914,12 @@
       <c r="D2">
         <v>-4008.7536</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2/$C$8</f>
+        <v>-14.431917053677504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +932,12 @@
       <c r="D3">
         <v>2923.5499999999988</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3/$C$8</f>
+        <v>10.525074702091654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,8 +950,12 @@
       <c r="D4">
         <v>22.2224</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8.0002880080642269E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -800,8 +968,12 @@
       <c r="D5">
         <v>-1863.9038</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-6.7102415667638704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>14375.115</v>
@@ -813,6 +985,21 @@
       <c r="D6">
         <f>B6-C6</f>
         <v>-2926.8850000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-10.537081038269074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>277.77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -822,15 +1009,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +1027,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -854,8 +1044,12 @@
       <c r="D2">
         <v>-530.33320000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2/$C$8</f>
+        <v>-1.9092529790834145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +1062,12 @@
       <c r="D3">
         <v>263.89100000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3/$C$8</f>
+        <v>0.95003420095762692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,8 +1080,12 @@
       <c r="D4">
         <v>1463.9005999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.2701897253123091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,8 +1098,12 @@
       <c r="D5">
         <v>-11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-3.9601108831047269E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>1744.4584</v>
@@ -909,6 +1115,21 @@
       <c r="D6">
         <f>B6-C6</f>
         <v>1186.4584</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.2713698383554739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>277.77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/debugging/results/results_check.xlsx
+++ b/debugging/results/results_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\debugging\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417AC2E-1BCD-49EF-862A-10D13806B39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F82089-5E0A-494A-986E-C4D0D2154621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EG" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
-  <si>
-    <t>Modelled</t>
-  </si>
-  <si>
-    <t>Actual data</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Oil</t>
   </si>
@@ -95,17 +86,17 @@
     <t>Modeled (PJ)</t>
   </si>
   <si>
-    <t>Difference (GW)</t>
-  </si>
-  <si>
-    <t>PJ</t>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +106,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,16 +180,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -498,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,186 +512,194 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.57</v>
+      </c>
       <c r="C2" s="3">
-        <v>2102.7946000000002</v>
+        <f>B2*$C$11</f>
+        <v>2102.7188999999998</v>
       </c>
       <c r="D2" s="3">
         <v>7147</v>
       </c>
       <c r="E2" s="3">
-        <v>-5044.2054000000007</v>
+        <f>C2-D2</f>
+        <v>-5044.2811000000002</v>
       </c>
       <c r="F2">
-        <f>E2/$C$12</f>
-        <v>-18.159647910141487</v>
+        <f>E2/$C$11</f>
+        <v>-18.159920437772261</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>509.01</v>
+      </c>
       <c r="C3" s="3">
-        <v>134162.1844</v>
+        <f>B3*$C$11</f>
+        <v>141387.7077</v>
       </c>
       <c r="D3" s="3">
         <v>160984</v>
       </c>
       <c r="E3" s="3">
-        <v>-26821.815600000002</v>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
+        <v>-19596.292300000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">E3/$C$12</f>
-        <v>-96.561239874716506</v>
+        <f>E3/$C$11</f>
+        <v>-70.548627641573972</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>67.09</v>
+      </c>
       <c r="C4" s="3">
-        <v>18802.928199999998</v>
+        <f>B4*$C$11</f>
+        <v>18635.5893</v>
       </c>
       <c r="D4" s="3">
         <v>15038</v>
       </c>
       <c r="E4" s="3">
-        <v>3764.928199999998</v>
+        <f t="shared" si="0"/>
+        <v>3597.5892999999996</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>13.554121035388984</v>
+        <f>E4/$C$11</f>
+        <v>12.951684127155559</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.6</v>
+      </c>
       <c r="C5" s="3">
-        <v>352.78059999999999</v>
+        <f>B5*$C$11</f>
+        <v>166.66199999999998</v>
       </c>
       <c r="D5" s="3">
         <v>4506</v>
       </c>
       <c r="E5" s="3">
-        <v>-4153.2194</v>
+        <f t="shared" si="0"/>
+        <v>-4339.3379999999997</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-14.952008496237896</v>
+        <f>E5/$C$11</f>
+        <v>-15.622054217518091</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16.690000000000001</v>
+      </c>
       <c r="C6" s="3">
-        <v>4636.1481999999996</v>
+        <f>B6*$C$11</f>
+        <v>4635.9813000000004</v>
       </c>
       <c r="D6" s="3">
         <v>4233</v>
       </c>
       <c r="E6" s="3">
-        <v>403.14819999999958</v>
+        <f t="shared" si="0"/>
+        <v>402.98130000000037</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.4513741584764359</v>
+        <f>E6/$C$11</f>
+        <v>1.4507733016524478</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15.92</v>
+      </c>
       <c r="C7" s="3">
-        <v>4422.2575999999999</v>
+        <f>B7*$C$11</f>
+        <v>4422.0983999999999</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>4422.2575999999999</v>
+        <f t="shared" si="0"/>
+        <v>4422.0983999999999</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>15.92057313604781</v>
+        <f>E7/$C$11</f>
+        <v>15.92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B2:B7)</f>
+        <v>616.88000000000011</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUM(C2:C7)</f>
+        <v>171350.75760000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(D2:D7)</f>
+        <v>191908</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8-D8</f>
+        <v>-20557.242399999988</v>
+      </c>
+      <c r="F8">
+        <f>E8/$C$11</f>
+        <v>-74.008144868056263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3">
-        <v>4741.7046</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4741.7046</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>17.070614537207042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3">
-        <f>SUM(C2:C8)</f>
-        <v>169220.79819999999</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(D2:D8)</f>
-        <v>191908</v>
-      </c>
-      <c r="E9" s="3">
-        <f>C9-D9</f>
-        <v>-22687.20180000001</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-81.676213413975631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
+      <c r="C11">
         <v>277.77</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -705,171 +709,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.81</v>
+      </c>
+      <c r="C2">
+        <f>B2*$C$12</f>
+        <v>224.99369999999999</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>219.99369999999999</v>
+      </c>
+      <c r="F2">
+        <f>E2/$C$12</f>
+        <v>0.79199949598588759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>64.91</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">B3*$C$12</f>
+        <v>18030.050699999996</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">C3-D3</f>
+        <v>18030.050699999996</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">E3/$C$12</f>
+        <v>64.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>59.94</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16649.533799999997</v>
+      </c>
+      <c r="D4">
+        <v>14850</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1799.5337999999974</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>6.4785030780861774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>188.8904</v>
-      </c>
-      <c r="C2">
+      <c r="B5">
+        <v>0.09</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24.999299999999998</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-7.0007000000000019</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-2.5203225690319339E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.33</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>924.97409999999991</v>
+      </c>
+      <c r="D6">
+        <v>608</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>316.97409999999991</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.1411387118839325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>183.8904</v>
-      </c>
-      <c r="E2">
-        <f>D2/$C$10</f>
-        <v>0.66202397667134683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1969.4602</v>
-      </c>
-      <c r="C3">
-        <v>14850</v>
-      </c>
-      <c r="D3">
-        <v>-12880.5398</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">D3/$C$10</f>
-        <v>-46.3712416747669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>2.82</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>783.31139999999994</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>783.31139999999994</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.43</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>952.75109999999995</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>952.75109999999995</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>22.2224</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>-9.7776000000000032</v>
-      </c>
-      <c r="E4">
+      <c r="B9">
+        <v>5.99</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>-3.5200345609677088E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>477.78160000000003</v>
-      </c>
-      <c r="C5">
-        <v>608</v>
-      </c>
-      <c r="D5">
-        <v>-130.2184</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-0.46879936638225872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>1663.8423</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1663.8423</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>141.32000000000002</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>39254.456399999988</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>15495</v>
+      </c>
+      <c r="E10">
+        <f>C10-D10</f>
+        <v>23759.456399999988</v>
+      </c>
+      <c r="F10">
+        <f>E10/$C$12</f>
+        <v>85.536438060265652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>277.77</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
-      </c>
-      <c r="B6">
-        <v>952.78539999999998</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>952.78539999999998</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3.4301234834575371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>16639.022000000001</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>16639.022000000001</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>59.902156460380901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>20250.162</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>15495</v>
-      </c>
-      <c r="D8">
-        <f>B8-C8</f>
-        <v>4755.1620000000003</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>17.119062533750949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>277.77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -879,127 +970,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.88</v>
+      </c>
+      <c r="C2">
+        <f>B2*$C$8</f>
+        <v>3022.1376</v>
+      </c>
+      <c r="D2">
+        <v>7031</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>-4008.8624</v>
+      </c>
+      <c r="F2">
+        <f>E2/$C$8</f>
+        <v>-14.432308744644851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>40.83</v>
+      </c>
+      <c r="C3">
+        <f>B3*$C$8</f>
+        <v>11341.349099999999</v>
+      </c>
+      <c r="D3">
+        <v>10271</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>1070.3490999999995</v>
+      </c>
+      <c r="F3">
+        <f>E3/$C$8</f>
+        <v>3.8533646542103162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>3022.2464</v>
-      </c>
-      <c r="C2">
-        <v>7031</v>
-      </c>
-      <c r="D2">
-        <v>-4008.7536</v>
-      </c>
-      <c r="E2">
-        <f>D2/$C$8</f>
-        <v>-14.431917053677504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>13194.55</v>
-      </c>
-      <c r="C3">
-        <v>10271</v>
-      </c>
-      <c r="D3">
-        <v>2923.5499999999988</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">D3/$C$8</f>
-        <v>10.525074702091654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4">
-        <v>22.2224</v>
+        <v>0.08</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>B4*$C$8</f>
+        <v>22.221599999999999</v>
       </c>
       <c r="D4">
-        <v>22.2224</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>8.0002880080642269E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.221599999999999</v>
+      </c>
+      <c r="F4">
+        <f>E4/$C$8</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>-1863.9038</v>
+        <v>3.42</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>B5*$C$8</f>
+        <v>949.97339999999997</v>
       </c>
       <c r="D5">
-        <v>-1863.9038</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-6.7102415667638704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>949.97339999999997</v>
+      </c>
+      <c r="F5">
+        <f>E5/$C$8</f>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>14375.115</v>
+        <v>55.21</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C5)</f>
+        <v>15335.681700000001</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
         <v>17302</v>
       </c>
-      <c r="D6">
-        <f>B6-C6</f>
-        <v>-2926.8850000000002</v>
-      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-10.537081038269074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>C6-D6</f>
+        <v>-1966.318299999999</v>
+      </c>
+      <c r="F6">
+        <f>E6/$C$8</f>
+        <v>-7.0789440904345291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>277.77</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1009,127 +1139,165 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+      <c r="C2">
+        <f>B2*$C$8</f>
+        <v>16.6662</v>
+      </c>
+      <c r="D2">
+        <v>547</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>-530.3338</v>
+      </c>
+      <c r="F2">
+        <f>E2/$C$8</f>
+        <v>-1.9092551391438961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3">
+        <v>6.21</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">B3*$C$8</f>
+        <v>1724.9516999999998</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>1724.9516999999998</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">E3/$C$8</f>
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>16.666799999999999</v>
-      </c>
-      <c r="C2">
-        <v>547</v>
-      </c>
-      <c r="D2">
-        <v>-530.33320000000003</v>
-      </c>
-      <c r="E2">
-        <f>D2/$C$8</f>
-        <v>-1.9092529790834145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>263.89100000000002</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>263.89100000000002</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">D3/$C$8</f>
-        <v>0.95003420095762692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1463.9005999999999</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1463.9005999999999</v>
-      </c>
-      <c r="E4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.2701897253123091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f>C5-D5</f>
         <v>-11</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>-3.9601108831047269E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>1744.4584</v>
+        <v>6.27</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C5)</f>
+        <v>1741.6178999999997</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
         <v>558</v>
       </c>
-      <c r="D6">
-        <f>B6-C6</f>
-        <v>1186.4584</v>
-      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4.2713698383554739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>C6-D6</f>
+        <v>1183.6178999999997</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.2611437520250561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>277.77</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/debugging/results/results_check.xlsx
+++ b/debugging/results/results_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\debugging\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F82089-5E0A-494A-986E-C4D0D2154621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE3336-7CE0-4CCA-A7AE-10B9864083FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Oil</t>
   </si>
@@ -90,13 +90,37 @@
   </si>
   <si>
     <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>Modeled (GW)</t>
+  </si>
+  <si>
+    <t>Actual (GW)</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source: </t>
+  </si>
+  <si>
+    <t>http://www.moee.gov.eg/english_new/EEHC_Rep/REP2021-2022en.pdf</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Fossil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +138,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,10 +200,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,14 +219,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,16 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -536,7 +565,7 @@
         <v>7.57</v>
       </c>
       <c r="C2" s="3">
-        <f>B2*$C$11</f>
+        <f t="shared" ref="C2:C7" si="0">B2*$C$11</f>
         <v>2102.7188999999998</v>
       </c>
       <c r="D2" s="3">
@@ -547,7 +576,7 @@
         <v>-5044.2811000000002</v>
       </c>
       <c r="F2">
-        <f>E2/$C$11</f>
+        <f t="shared" ref="F2:F8" si="1">E2/$C$11</f>
         <v>-18.159920437772261</v>
       </c>
     </row>
@@ -559,18 +588,18 @@
         <v>509.01</v>
       </c>
       <c r="C3" s="3">
-        <f>B3*$C$11</f>
+        <f t="shared" si="0"/>
         <v>141387.7077</v>
       </c>
       <c r="D3" s="3">
         <v>160984</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="2">C3-D3</f>
         <v>-19596.292300000001</v>
       </c>
       <c r="F3">
-        <f>E3/$C$11</f>
+        <f t="shared" si="1"/>
         <v>-70.548627641573972</v>
       </c>
     </row>
@@ -582,18 +611,18 @@
         <v>67.09</v>
       </c>
       <c r="C4" s="3">
-        <f>B4*$C$11</f>
+        <f t="shared" si="0"/>
         <v>18635.5893</v>
       </c>
       <c r="D4" s="3">
         <v>15038</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3597.5892999999996</v>
       </c>
       <c r="F4">
-        <f>E4/$C$11</f>
+        <f t="shared" si="1"/>
         <v>12.951684127155559</v>
       </c>
     </row>
@@ -605,18 +634,18 @@
         <v>0.6</v>
       </c>
       <c r="C5" s="3">
-        <f>B5*$C$11</f>
+        <f t="shared" si="0"/>
         <v>166.66199999999998</v>
       </c>
       <c r="D5" s="3">
         <v>4506</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4339.3379999999997</v>
       </c>
       <c r="F5">
-        <f>E5/$C$11</f>
+        <f t="shared" si="1"/>
         <v>-15.622054217518091</v>
       </c>
     </row>
@@ -628,18 +657,18 @@
         <v>16.690000000000001</v>
       </c>
       <c r="C6" s="3">
-        <f>B6*$C$11</f>
+        <f t="shared" si="0"/>
         <v>4635.9813000000004</v>
       </c>
       <c r="D6" s="3">
         <v>4233</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>402.98130000000037</v>
       </c>
       <c r="F6">
-        <f>E6/$C$11</f>
+        <f t="shared" si="1"/>
         <v>1.4507733016524478</v>
       </c>
     </row>
@@ -651,18 +680,18 @@
         <v>15.92</v>
       </c>
       <c r="C7" s="3">
-        <f>B7*$C$11</f>
-        <v>4422.0983999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>4422.0983999999999</v>
       </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>4422.0983999999999</v>
+      </c>
       <c r="F7">
-        <f>E7/$C$11</f>
+        <f t="shared" si="1"/>
         <v>15.92</v>
       </c>
     </row>
@@ -687,7 +716,7 @@
         <v>-20557.242399999988</v>
       </c>
       <c r="F8">
-        <f>E8/$C$11</f>
+        <f t="shared" si="1"/>
         <v>-74.008144868056263</v>
       </c>
     </row>
@@ -702,7 +731,134 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>4.364+47.979</f>
+        <v>52.342999999999996</v>
+      </c>
+      <c r="C15">
+        <f>(3343+17179+32448)/1000</f>
+        <v>52.97</v>
+      </c>
+      <c r="D15">
+        <f>B15-C15</f>
+        <v>-0.62700000000000244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D20" si="3">B16-C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <f>0.8+0.64</f>
+        <v>1.44</v>
+      </c>
+      <c r="C17">
+        <f>(80+1465+22)/1000</f>
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="C18">
+        <f>(542.3+580+250)/1000</f>
+        <v>1.3722999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>0.18070000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B15:B19)</f>
+        <v>58.167999999999992</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C15:C19)</f>
+        <v>58.741300000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-0.57330000000001036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{88917467-013E-409E-AB73-BD684F29509C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1097,7 +1253,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -1265,7 +1421,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6">

--- a/debugging/results/results_check.xlsx
+++ b/debugging/results/results_check.xlsx
@@ -484,16 +484,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145628.9428</v>
+        <v>145812.2776</v>
       </c>
       <c r="C3" t="n">
         <v>160984</v>
       </c>
       <c r="D3" t="n">
-        <v>-15355.05720000001</v>
+        <v>-15171.72240000003</v>
       </c>
       <c r="E3" t="n">
-        <v>-55.27820592000003</v>
+        <v>-54.6182006400001</v>
       </c>
     </row>
     <row r="4">
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.7806</v>
+        <v>166.668</v>
       </c>
       <c r="C5" t="n">
         <v>4506</v>
       </c>
       <c r="D5" t="n">
-        <v>-4153.2194</v>
+        <v>-4339.332</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.95158984</v>
+        <v>-15.6215952</v>
       </c>
     </row>
     <row r="6">
